--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r112_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r112_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +749,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +842,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1026,10 +1038,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1073,28 +1085,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1119,28 +1131,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1315,10 +1327,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1362,28 +1374,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1408,28 +1420,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1662,10 +1674,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1709,28 +1721,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1755,28 +1767,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1922,10 +1934,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1969,28 +1981,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2015,28 +2027,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2269,10 +2281,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2316,28 +2328,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2362,28 +2374,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2587,10 +2599,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2634,28 +2646,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2680,28 +2692,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2905,10 +2917,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2952,28 +2964,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2998,28 +3010,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3194,10 +3206,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3241,28 +3253,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3287,28 +3299,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3541,10 +3553,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3588,28 +3600,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3634,28 +3646,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3801,10 +3813,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3848,28 +3860,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3894,28 +3906,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4148,10 +4160,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4195,28 +4207,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4241,28 +4253,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4466,10 +4478,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4513,28 +4525,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4559,28 +4571,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4813,10 +4825,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4860,28 +4872,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4906,28 +4918,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4986,10 +4998,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5033,28 +5045,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5079,28 +5091,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5159,10 +5171,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5206,28 +5218,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5252,28 +5264,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5506,10 +5518,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5553,28 +5565,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5599,28 +5611,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5679,10 +5691,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5726,28 +5738,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5772,28 +5784,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5852,10 +5864,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5899,28 +5911,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5945,28 +5957,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6025,10 +6037,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6072,28 +6084,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6118,28 +6130,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6198,10 +6210,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6245,28 +6257,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6291,28 +6303,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6371,10 +6383,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
